--- a/src/sql/设计.xlsx
+++ b/src/sql/设计.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\abs_doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuhao\git\abs_web\src\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -112,8 +113,70 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>liuhao</author>
+  </authors>
+  <commentList>
+    <comment ref="D16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>liuhao:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+（0，普通 1，限时抢购 2，热卖产品 3，节日 4，拍卖）</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>liuhao:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+（0，普通 1，限时抢购 2，热卖产品 3，节日 4，拍卖）</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="281">
   <si>
     <t>img_path</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1275,12 +1338,96 @@
     <t>wuliu_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>private Date orderDate;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private String status;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private String openId;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private Integer addressId;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private BigDecimal totlePrice;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private BigDecimal wuliuYunfei;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private String yhqFlg;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private Integer yhqCode;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private String jifenFlg;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private BigDecimal jifenDixiao;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private BigDecimal shijiPrice;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private String delFlg;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private Date cDate;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private String cUser;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private Date uDate;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private String uUser;</t>
+  </si>
+  <si>
+    <t>采番</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSdate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemTotle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yunfeiTotle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jifenFlg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jifen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>head-adid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1361,7 +1508,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1416,6 +1563,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -1466,7 +1631,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1506,16 +1671,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1570,22 +1725,42 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1863,11 +2038,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+    <sheetView topLeftCell="B22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16:P35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="13.75" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
@@ -1879,7 +2054,7 @@
     <col min="14" max="14" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:16">
       <c r="B3" s="2" t="s">
         <v>107</v>
       </c>
@@ -1896,7 +2071,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:16">
       <c r="B4" s="3" t="s">
         <v>104</v>
       </c>
@@ -1925,7 +2100,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:16">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1935,13 +2110,13 @@
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="20" t="s">
         <v>56</v>
       </c>
       <c r="J5" s="5" t="s">
@@ -1954,7 +2129,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:16">
       <c r="B6" s="1" t="s">
         <v>105</v>
       </c>
@@ -1964,13 +2139,13 @@
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="25" t="s">
         <v>38</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -1983,7 +2158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:16">
       <c r="B7" s="1" t="s">
         <v>106</v>
       </c>
@@ -1993,10 +2168,10 @@
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="31" t="s">
         <v>218</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -2015,7 +2190,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:16">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
@@ -2044,7 +2219,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:16">
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
@@ -2073,7 +2248,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:16">
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -2102,7 +2277,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:16">
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -2112,7 +2287,7 @@
       <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="33" t="s">
         <v>244</v>
       </c>
       <c r="G11" s="7" t="s">
@@ -2131,7 +2306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:16">
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -2141,7 +2316,7 @@
       <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="33" t="s">
         <v>245</v>
       </c>
       <c r="G12" s="7" t="s">
@@ -2160,8 +2335,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="F13" s="37" t="s">
+    <row r="13" spans="2:16">
+      <c r="F13" s="33" t="s">
         <v>221</v>
       </c>
       <c r="G13" s="7" t="s">
@@ -2180,8 +2355,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="F14" s="37" t="s">
+    <row r="14" spans="2:16">
+      <c r="F14" s="33" t="s">
         <v>246</v>
       </c>
       <c r="G14" s="7" t="s">
@@ -2191,13 +2366,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:16">
       <c r="B15" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="33" t="s">
         <v>247</v>
       </c>
       <c r="G15" s="6" t="s">
@@ -2207,7 +2382,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:16">
       <c r="B16" s="5" t="s">
         <v>110</v>
       </c>
@@ -2217,7 +2392,7 @@
       <c r="D16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="33" t="s">
         <v>227</v>
       </c>
       <c r="G16" s="7" t="s">
@@ -2237,7 +2412,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:16">
       <c r="B17" s="6" t="s">
         <v>111</v>
       </c>
@@ -2247,7 +2422,7 @@
       <c r="D17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="37" t="s">
+      <c r="F17" s="33" t="s">
         <v>228</v>
       </c>
       <c r="G17" s="7" t="s">
@@ -2275,7 +2450,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:16">
       <c r="B18" s="1" t="s">
         <v>112</v>
       </c>
@@ -2285,7 +2460,7 @@
       <c r="D18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="37" t="s">
+      <c r="F18" s="33" t="s">
         <v>231</v>
       </c>
       <c r="G18" s="7" t="s">
@@ -2294,13 +2469,13 @@
       <c r="H18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="31" t="s">
+      <c r="J18" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="K18" s="32" t="s">
+      <c r="K18" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="L18" s="33" t="s">
+      <c r="L18" s="29" t="s">
         <v>28</v>
       </c>
       <c r="N18" s="3" t="s">
@@ -2313,7 +2488,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:16">
       <c r="B19" s="1" t="s">
         <v>113</v>
       </c>
@@ -2323,7 +2498,7 @@
       <c r="D19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="37" t="s">
+      <c r="F19" s="33" t="s">
         <v>232</v>
       </c>
       <c r="G19" s="7" t="s">
@@ -2351,7 +2526,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:16">
       <c r="B20" s="1" t="s">
         <v>30</v>
       </c>
@@ -2361,7 +2536,7 @@
       <c r="D20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="37" t="s">
+      <c r="F20" s="33" t="s">
         <v>235</v>
       </c>
       <c r="G20" s="7" t="s">
@@ -2389,7 +2564,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:16">
       <c r="B21" s="1" t="s">
         <v>31</v>
       </c>
@@ -2427,7 +2602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:16">
       <c r="B22" s="1" t="s">
         <v>137</v>
       </c>
@@ -2465,7 +2640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:16">
       <c r="B23" s="1" t="s">
         <v>18</v>
       </c>
@@ -2503,7 +2678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:16">
       <c r="B24" s="1" t="s">
         <v>32</v>
       </c>
@@ -2541,7 +2716,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:16">
       <c r="B25" s="1" t="s">
         <v>33</v>
       </c>
@@ -2560,26 +2735,26 @@
       <c r="H25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J25" s="39" t="s">
+      <c r="J25" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="K25" s="39" t="s">
+      <c r="K25" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="L25" s="40" t="s">
+      <c r="L25" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="N25" s="25" t="s">
+      <c r="N25" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="O25" s="25" t="s">
+      <c r="O25" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="P25" s="38" t="s">
+      <c r="P25" s="34" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:16">
       <c r="B26" s="1" t="s">
         <v>1</v>
       </c>
@@ -2608,7 +2783,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:16">
       <c r="B27" s="1" t="s">
         <v>2</v>
       </c>
@@ -2642,7 +2817,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:16">
       <c r="B28" s="1" t="s">
         <v>4</v>
       </c>
@@ -2670,17 +2845,17 @@
       <c r="L28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N28" s="34" t="s">
+      <c r="N28" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="O28" s="34" t="s">
+      <c r="O28" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="P28" s="35" t="s">
+      <c r="P28" s="31" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:16">
       <c r="B29" s="1" t="s">
         <v>3</v>
       </c>
@@ -2708,17 +2883,17 @@
       <c r="L29" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N29" s="34" t="s">
+      <c r="N29" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="O29" s="34" t="s">
+      <c r="O29" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="P29" s="29" t="s">
+      <c r="P29" s="25" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:16">
       <c r="B30" s="1" t="s">
         <v>5</v>
       </c>
@@ -2756,7 +2931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:16">
       <c r="F31" s="1" t="s">
         <v>140</v>
       </c>
@@ -2785,7 +2960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:16">
       <c r="F32" s="1" t="s">
         <v>141</v>
       </c>
@@ -2814,7 +2989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16">
       <c r="F33" s="1" t="s">
         <v>142</v>
       </c>
@@ -2843,7 +3018,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16">
       <c r="F34" s="1" t="s">
         <v>143</v>
       </c>
@@ -2872,7 +3047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16">
       <c r="F35" s="1" t="s">
         <v>19</v>
       </c>
@@ -2882,7 +3057,7 @@
       <c r="H35" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I35" s="28"/>
+      <c r="I35" s="24"/>
       <c r="J35" s="1" t="s">
         <v>5</v>
       </c>
@@ -2893,24 +3068,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A36" s="26"/>
+    <row r="36" spans="1:16">
+      <c r="A36" s="22"/>
       <c r="B36" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="F36" s="24" t="s">
+      <c r="F36" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G36" s="24" t="s">
+      <c r="G36" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="H36" s="24" t="s">
+      <c r="H36" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16">
       <c r="B37" s="5" t="s">
         <v>51</v>
       </c>
@@ -2920,17 +3095,17 @@
       <c r="D37" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F37" s="24" t="s">
+      <c r="F37" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="G37" s="24" t="s">
+      <c r="G37" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="H37" s="24" t="s">
+      <c r="H37" s="20" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16">
       <c r="B38" s="1" t="s">
         <v>123</v>
       </c>
@@ -2940,17 +3115,17 @@
       <c r="D38" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="25" t="s">
+      <c r="F38" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="G38" s="25" t="s">
+      <c r="G38" s="21" t="s">
         <v>196</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16">
       <c r="B39" s="1" t="s">
         <v>240</v>
       </c>
@@ -2960,17 +3135,17 @@
       <c r="D39" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="25" t="s">
+      <c r="F39" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="G39" s="25" t="s">
+      <c r="G39" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="H39" s="24" t="s">
+      <c r="H39" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:16">
       <c r="B40" s="1" t="s">
         <v>1</v>
       </c>
@@ -2990,7 +3165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:16">
       <c r="B41" s="1" t="s">
         <v>2</v>
       </c>
@@ -3010,7 +3185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:16">
       <c r="B42" s="1" t="s">
         <v>4</v>
       </c>
@@ -3030,7 +3205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:16">
       <c r="B43" s="1" t="s">
         <v>3</v>
       </c>
@@ -3050,7 +3225,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:16">
       <c r="B44" s="1" t="s">
         <v>5</v>
       </c>
@@ -3070,7 +3245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:16" ht="14.25">
       <c r="J46" s="10"/>
       <c r="K46" s="11" t="s">
         <v>81</v>
@@ -3080,11 +3255,11 @@
       </c>
       <c r="M46" s="17"/>
     </row>
-    <row r="47" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:16" ht="14.25">
       <c r="F47" t="s">
         <v>216</v>
       </c>
-      <c r="J47" s="19" t="s">
+      <c r="J47" s="37" t="s">
         <v>82</v>
       </c>
       <c r="K47" s="13" t="s">
@@ -3097,7 +3272,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:16" ht="14.25">
       <c r="B48" s="1" t="s">
         <v>200</v>
       </c>
@@ -3110,7 +3285,7 @@
       <c r="H48" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="J48" s="20"/>
+      <c r="J48" s="38"/>
       <c r="K48" s="14" t="s">
         <v>83</v>
       </c>
@@ -3121,8 +3296,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A49" s="26"/>
+    <row r="49" spans="1:13" ht="14.25">
+      <c r="A49" s="22"/>
       <c r="B49" s="5" t="s">
         <v>51</v>
       </c>
@@ -3141,7 +3316,7 @@
       <c r="H49" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J49" s="20"/>
+      <c r="J49" s="38"/>
       <c r="K49" s="14" t="s">
         <v>86</v>
       </c>
@@ -3152,7 +3327,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:13" ht="14.25">
       <c r="B50" s="1" t="s">
         <v>201</v>
       </c>
@@ -3171,7 +3346,7 @@
       <c r="H50" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J50" s="20"/>
+      <c r="J50" s="38"/>
       <c r="K50" s="14" t="s">
         <v>88</v>
       </c>
@@ -3182,8 +3357,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B51" s="36" t="s">
+    <row r="51" spans="1:13" ht="14.25">
+      <c r="B51" s="32" t="s">
         <v>241</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -3199,7 +3374,7 @@
       <c r="H51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J51" s="20"/>
+      <c r="J51" s="38"/>
       <c r="K51" s="14" t="s">
         <v>90</v>
       </c>
@@ -3210,8 +3385,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B52" s="35" t="s">
+    <row r="52" spans="1:13" ht="14.25">
+      <c r="B52" s="31" t="s">
         <v>52</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -3229,7 +3404,7 @@
       <c r="H52" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J52" s="20"/>
+      <c r="J52" s="38"/>
       <c r="K52" s="14" t="s">
         <v>92</v>
       </c>
@@ -3240,8 +3415,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="35" t="s">
+    <row r="53" spans="1:13" ht="14.25" customHeight="1">
+      <c r="B53" s="31" t="s">
         <v>211</v>
       </c>
       <c r="C53" s="8" t="s">
@@ -3250,7 +3425,7 @@
       <c r="D53" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E53" s="27" t="s">
+      <c r="E53" s="23" t="s">
         <v>214</v>
       </c>
       <c r="F53" s="1" t="s">
@@ -3262,7 +3437,7 @@
       <c r="H53" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J53" s="20"/>
+      <c r="J53" s="38"/>
       <c r="K53" s="14" t="s">
         <v>79</v>
       </c>
@@ -3273,8 +3448,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B54" s="35" t="s">
+    <row r="54" spans="1:13">
+      <c r="B54" s="31" t="s">
         <v>212</v>
       </c>
       <c r="C54" s="8" t="s">
@@ -3292,7 +3467,7 @@
       <c r="H54" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J54" s="21"/>
+      <c r="J54" s="39"/>
       <c r="K54" s="15" t="s">
         <v>197</v>
       </c>
@@ -3303,8 +3478,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B55" s="35" t="s">
+    <row r="55" spans="1:13" ht="14.25">
+      <c r="B55" s="31" t="s">
         <v>204</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -3322,7 +3497,7 @@
       <c r="H55" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="22"/>
+      <c r="J55" s="40"/>
       <c r="K55" s="18" t="s">
         <v>101</v>
       </c>
@@ -3333,7 +3508,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:13">
       <c r="B56" s="1" t="s">
         <v>1</v>
       </c>
@@ -3363,7 +3538,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:13">
       <c r="B57" s="1" t="s">
         <v>2</v>
       </c>
@@ -3374,7 +3549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:13">
       <c r="B58" s="1" t="s">
         <v>4</v>
       </c>
@@ -3385,7 +3560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:13">
       <c r="B59" s="1" t="s">
         <v>3</v>
       </c>
@@ -3396,7 +3571,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:13">
       <c r="B60" s="1" t="s">
         <v>5</v>
       </c>
@@ -3427,13 +3602,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="94.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:1" ht="67.5">
+      <c r="A1" s="19" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3441,4 +3616,524 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="35.5" customWidth="1"/>
+    <col min="6" max="6" width="4.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="B2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="41"/>
+      <c r="H9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="41"/>
+      <c r="H10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="41"/>
+      <c r="H11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="45"/>
+      <c r="H12" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>259</v>
+      </c>
+      <c r="B13" s="41"/>
+      <c r="C13" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="45"/>
+      <c r="H13" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="46" t="s">
+        <v>274</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="45"/>
+      <c r="H14" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>260</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>274</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="41"/>
+      <c r="H15" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="C16" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="45"/>
+      <c r="H16" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="45"/>
+      <c r="H17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="C18" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="G18" s="45"/>
+      <c r="H18" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>262</v>
+      </c>
+      <c r="B19" s="41"/>
+      <c r="C19" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="J19" s="31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="B20" s="41"/>
+      <c r="C20" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>263</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>274</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="C22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>264</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>265</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>